--- a/aspnet-core/src/onetouch.Web.Host/Assets/Products.xlsx
+++ b/aspnet-core/src/onetouch.Web.Host/Assets/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Record Type</t>
   </si>
@@ -187,6 +187,69 @@
   </si>
   <si>
     <t>Size Ratio Value</t>
+  </si>
+  <si>
+    <t>Material Content</t>
+  </si>
+  <si>
+    <t>Sold Out Date</t>
+  </si>
+  <si>
+    <t>BrandCode</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>Start Ship Date</t>
+  </si>
+  <si>
+    <t>Dimension 1 sizes</t>
+  </si>
+  <si>
+    <t>Dimension 2 sizes</t>
+  </si>
+  <si>
+    <t>Dimension 3 sizes</t>
+  </si>
+  <si>
+    <t>Dimension 1 Name</t>
+  </si>
+  <si>
+    <t>Dimension 2 Name</t>
+  </si>
+  <si>
+    <t>Dimension 3 Name</t>
+  </si>
+  <si>
+    <t>No of Dimensions</t>
+  </si>
+  <si>
+    <t>COLOR-HEX</t>
+  </si>
+  <si>
+    <t>COLOR-IMAGE</t>
+  </si>
+  <si>
+    <t>COLOR-SCHEME</t>
+  </si>
+  <si>
+    <t>COLOR-NRF</t>
+  </si>
+  <si>
+    <t>SIZE MARKET PLACE CODE</t>
+  </si>
+  <si>
+    <t>SIZE-NRF</t>
+  </si>
+  <si>
+    <t>Dimension1Position</t>
+  </si>
+  <si>
+    <t>Dimension2Position</t>
+  </si>
+  <si>
+    <t>Dimension3Position</t>
   </si>
 </sst>
 </file>
@@ -331,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -378,9 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,32 +664,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T993"/>
+  <dimension ref="A1:AM993"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="19.5703125" style="18" customWidth="1"/>
-    <col min="7" max="10" width="30.28515625" style="18" customWidth="1"/>
-    <col min="11" max="14" width="19.85546875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="18" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="18" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="10" style="18" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="18" customWidth="1"/>
-    <col min="21" max="21" width="13" style="18" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" style="18" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" style="18" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="18" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="18" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="6" width="19.5703125" style="17" customWidth="1"/>
+    <col min="7" max="10" width="30.28515625" style="17" customWidth="1"/>
+    <col min="11" max="14" width="19.85546875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="17" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="10" style="17" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="17" customWidth="1"/>
+    <col min="21" max="21" width="13" style="17" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" style="17" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="17" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="17" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="17" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="17" customFormat="1" ht="39" thickBot="1">
+    <row r="1" spans="1:39" s="16" customFormat="1" ht="39" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
@@ -684,2984 +744,3045 @@
       <c r="R1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="T9" s="19"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="T12" s="19"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="T13" s="19"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1">
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1">
-      <c r="T16" s="19"/>
+      <c r="S1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:39" ht="15.75" customHeight="1">
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" customHeight="1">
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:39" ht="15.75" customHeight="1">
+      <c r="T16" s="18"/>
     </row>
     <row r="17" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T17" s="19"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T18" s="19"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T19" s="19"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T20" s="19"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T21" s="19"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T22" s="19"/>
+      <c r="T22" s="18"/>
     </row>
     <row r="23" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T23" s="19"/>
+      <c r="T23" s="18"/>
     </row>
     <row r="24" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T24" s="19"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T25" s="19"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T26" s="19"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T27" s="19"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T28" s="19"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T29" s="19"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T30" s="19"/>
+      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T31" s="19"/>
+      <c r="T31" s="18"/>
     </row>
     <row r="32" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T32" s="19"/>
+      <c r="T32" s="18"/>
     </row>
     <row r="33" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T33" s="19"/>
+      <c r="T33" s="18"/>
     </row>
     <row r="34" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T34" s="19"/>
+      <c r="T34" s="18"/>
     </row>
     <row r="35" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T35" s="19"/>
+      <c r="T35" s="18"/>
     </row>
     <row r="36" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T36" s="19"/>
+      <c r="T36" s="18"/>
     </row>
     <row r="37" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T37" s="19"/>
+      <c r="T37" s="18"/>
     </row>
     <row r="38" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T38" s="19"/>
+      <c r="T38" s="18"/>
     </row>
     <row r="39" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T39" s="19"/>
+      <c r="T39" s="18"/>
     </row>
     <row r="40" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T40" s="19"/>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T41" s="19"/>
+      <c r="T41" s="18"/>
     </row>
     <row r="42" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T42" s="19"/>
+      <c r="T42" s="18"/>
     </row>
     <row r="43" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T43" s="19"/>
+      <c r="T43" s="18"/>
     </row>
     <row r="44" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T44" s="19"/>
+      <c r="T44" s="18"/>
     </row>
     <row r="45" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T45" s="19"/>
+      <c r="T45" s="18"/>
     </row>
     <row r="46" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T46" s="19"/>
+      <c r="T46" s="18"/>
     </row>
     <row r="47" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T47" s="19"/>
+      <c r="T47" s="18"/>
     </row>
     <row r="48" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T48" s="19"/>
+      <c r="T48" s="18"/>
     </row>
     <row r="49" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T49" s="19"/>
+      <c r="T49" s="18"/>
     </row>
     <row r="50" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T50" s="19"/>
+      <c r="T50" s="18"/>
     </row>
     <row r="51" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T51" s="19"/>
+      <c r="T51" s="18"/>
     </row>
     <row r="52" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T52" s="19"/>
+      <c r="T52" s="18"/>
     </row>
     <row r="53" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T53" s="19"/>
+      <c r="T53" s="18"/>
     </row>
     <row r="54" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T54" s="19"/>
+      <c r="T54" s="18"/>
     </row>
     <row r="55" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T55" s="19"/>
+      <c r="T55" s="18"/>
     </row>
     <row r="56" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T56" s="19"/>
+      <c r="T56" s="18"/>
     </row>
     <row r="57" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T57" s="19"/>
+      <c r="T57" s="18"/>
     </row>
     <row r="58" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T58" s="19"/>
+      <c r="T58" s="18"/>
     </row>
     <row r="59" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T59" s="19"/>
+      <c r="T59" s="18"/>
     </row>
     <row r="60" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T60" s="19"/>
+      <c r="T60" s="18"/>
     </row>
     <row r="61" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T61" s="19"/>
+      <c r="T61" s="18"/>
     </row>
     <row r="62" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T62" s="19"/>
+      <c r="T62" s="18"/>
     </row>
     <row r="63" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T63" s="19"/>
+      <c r="T63" s="18"/>
     </row>
     <row r="64" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T64" s="19"/>
+      <c r="T64" s="18"/>
     </row>
     <row r="65" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T65" s="19"/>
+      <c r="T65" s="18"/>
     </row>
     <row r="66" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T66" s="19"/>
+      <c r="T66" s="18"/>
     </row>
     <row r="67" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T67" s="19"/>
+      <c r="T67" s="18"/>
     </row>
     <row r="68" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T68" s="19"/>
+      <c r="T68" s="18"/>
     </row>
     <row r="69" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T69" s="19"/>
+      <c r="T69" s="18"/>
     </row>
     <row r="70" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T70" s="19"/>
+      <c r="T70" s="18"/>
     </row>
     <row r="71" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T71" s="19"/>
+      <c r="T71" s="18"/>
     </row>
     <row r="72" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T72" s="19"/>
+      <c r="T72" s="18"/>
     </row>
     <row r="73" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T73" s="19"/>
+      <c r="T73" s="18"/>
     </row>
     <row r="74" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T74" s="19"/>
+      <c r="T74" s="18"/>
     </row>
     <row r="75" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T75" s="19"/>
+      <c r="T75" s="18"/>
     </row>
     <row r="76" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T76" s="19"/>
+      <c r="T76" s="18"/>
     </row>
     <row r="77" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T77" s="19"/>
+      <c r="T77" s="18"/>
     </row>
     <row r="78" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T78" s="19"/>
+      <c r="T78" s="18"/>
     </row>
     <row r="79" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T79" s="19"/>
+      <c r="T79" s="18"/>
     </row>
     <row r="80" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T80" s="19"/>
+      <c r="T80" s="18"/>
     </row>
     <row r="81" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T81" s="19"/>
+      <c r="T81" s="18"/>
     </row>
     <row r="82" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T82" s="19"/>
+      <c r="T82" s="18"/>
     </row>
     <row r="83" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T83" s="19"/>
+      <c r="T83" s="18"/>
     </row>
     <row r="84" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T84" s="19"/>
+      <c r="T84" s="18"/>
     </row>
     <row r="85" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T85" s="19"/>
+      <c r="T85" s="18"/>
     </row>
     <row r="86" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T86" s="19"/>
+      <c r="T86" s="18"/>
     </row>
     <row r="87" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T87" s="19"/>
+      <c r="T87" s="18"/>
     </row>
     <row r="88" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T88" s="19"/>
+      <c r="T88" s="18"/>
     </row>
     <row r="89" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T89" s="19"/>
+      <c r="T89" s="18"/>
     </row>
     <row r="90" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T90" s="19"/>
+      <c r="T90" s="18"/>
     </row>
     <row r="91" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T91" s="19"/>
+      <c r="T91" s="18"/>
     </row>
     <row r="92" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T92" s="19"/>
+      <c r="T92" s="18"/>
     </row>
     <row r="93" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T93" s="19"/>
+      <c r="T93" s="18"/>
     </row>
     <row r="94" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T94" s="19"/>
+      <c r="T94" s="18"/>
     </row>
     <row r="95" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T95" s="19"/>
+      <c r="T95" s="18"/>
     </row>
     <row r="96" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T96" s="19"/>
+      <c r="T96" s="18"/>
     </row>
     <row r="97" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T97" s="19"/>
+      <c r="T97" s="18"/>
     </row>
     <row r="98" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T98" s="19"/>
+      <c r="T98" s="18"/>
     </row>
     <row r="99" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T99" s="19"/>
+      <c r="T99" s="18"/>
     </row>
     <row r="100" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T100" s="19"/>
+      <c r="T100" s="18"/>
     </row>
     <row r="101" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T101" s="19"/>
+      <c r="T101" s="18"/>
     </row>
     <row r="102" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T102" s="19"/>
+      <c r="T102" s="18"/>
     </row>
     <row r="103" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T103" s="19"/>
+      <c r="T103" s="18"/>
     </row>
     <row r="104" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T104" s="19"/>
+      <c r="T104" s="18"/>
     </row>
     <row r="105" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T105" s="19"/>
+      <c r="T105" s="18"/>
     </row>
     <row r="106" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T106" s="19"/>
+      <c r="T106" s="18"/>
     </row>
     <row r="107" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T107" s="19"/>
+      <c r="T107" s="18"/>
     </row>
     <row r="108" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T108" s="19"/>
+      <c r="T108" s="18"/>
     </row>
     <row r="109" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T109" s="19"/>
+      <c r="T109" s="18"/>
     </row>
     <row r="110" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T110" s="19"/>
+      <c r="T110" s="18"/>
     </row>
     <row r="111" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T111" s="19"/>
+      <c r="T111" s="18"/>
     </row>
     <row r="112" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T112" s="19"/>
+      <c r="T112" s="18"/>
     </row>
     <row r="113" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T113" s="19"/>
+      <c r="T113" s="18"/>
     </row>
     <row r="114" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T114" s="19"/>
+      <c r="T114" s="18"/>
     </row>
     <row r="115" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T115" s="19"/>
+      <c r="T115" s="18"/>
     </row>
     <row r="116" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T116" s="19"/>
+      <c r="T116" s="18"/>
     </row>
     <row r="117" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T117" s="19"/>
+      <c r="T117" s="18"/>
     </row>
     <row r="118" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T118" s="19"/>
+      <c r="T118" s="18"/>
     </row>
     <row r="119" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T119" s="19"/>
+      <c r="T119" s="18"/>
     </row>
     <row r="120" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T120" s="19"/>
+      <c r="T120" s="18"/>
     </row>
     <row r="121" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T121" s="19"/>
+      <c r="T121" s="18"/>
     </row>
     <row r="122" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T122" s="19"/>
+      <c r="T122" s="18"/>
     </row>
     <row r="123" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T123" s="19"/>
+      <c r="T123" s="18"/>
     </row>
     <row r="124" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T124" s="19"/>
+      <c r="T124" s="18"/>
     </row>
     <row r="125" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T125" s="19"/>
+      <c r="T125" s="18"/>
     </row>
     <row r="126" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T126" s="19"/>
+      <c r="T126" s="18"/>
     </row>
     <row r="127" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T127" s="19"/>
+      <c r="T127" s="18"/>
     </row>
     <row r="128" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T128" s="19"/>
+      <c r="T128" s="18"/>
     </row>
     <row r="129" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T129" s="19"/>
+      <c r="T129" s="18"/>
     </row>
     <row r="130" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T130" s="19"/>
+      <c r="T130" s="18"/>
     </row>
     <row r="131" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T131" s="19"/>
+      <c r="T131" s="18"/>
     </row>
     <row r="132" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T132" s="19"/>
+      <c r="T132" s="18"/>
     </row>
     <row r="133" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T133" s="19"/>
+      <c r="T133" s="18"/>
     </row>
     <row r="134" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T134" s="19"/>
+      <c r="T134" s="18"/>
     </row>
     <row r="135" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T135" s="19"/>
+      <c r="T135" s="18"/>
     </row>
     <row r="136" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T136" s="19"/>
+      <c r="T136" s="18"/>
     </row>
     <row r="137" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T137" s="19"/>
+      <c r="T137" s="18"/>
     </row>
     <row r="138" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T138" s="19"/>
+      <c r="T138" s="18"/>
     </row>
     <row r="139" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T139" s="19"/>
+      <c r="T139" s="18"/>
     </row>
     <row r="140" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T140" s="19"/>
+      <c r="T140" s="18"/>
     </row>
     <row r="141" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T141" s="19"/>
+      <c r="T141" s="18"/>
     </row>
     <row r="142" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T142" s="19"/>
+      <c r="T142" s="18"/>
     </row>
     <row r="143" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T143" s="19"/>
+      <c r="T143" s="18"/>
     </row>
     <row r="144" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T144" s="19"/>
+      <c r="T144" s="18"/>
     </row>
     <row r="145" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T145" s="19"/>
+      <c r="T145" s="18"/>
     </row>
     <row r="146" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T146" s="19"/>
+      <c r="T146" s="18"/>
     </row>
     <row r="147" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T147" s="19"/>
+      <c r="T147" s="18"/>
     </row>
     <row r="148" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T148" s="19"/>
+      <c r="T148" s="18"/>
     </row>
     <row r="149" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T149" s="19"/>
+      <c r="T149" s="18"/>
     </row>
     <row r="150" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T150" s="19"/>
+      <c r="T150" s="18"/>
     </row>
     <row r="151" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T151" s="19"/>
+      <c r="T151" s="18"/>
     </row>
     <row r="152" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T152" s="19"/>
+      <c r="T152" s="18"/>
     </row>
     <row r="153" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T153" s="19"/>
+      <c r="T153" s="18"/>
     </row>
     <row r="154" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T154" s="19"/>
+      <c r="T154" s="18"/>
     </row>
     <row r="155" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T155" s="19"/>
+      <c r="T155" s="18"/>
     </row>
     <row r="156" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T156" s="19"/>
+      <c r="T156" s="18"/>
     </row>
     <row r="157" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T157" s="19"/>
+      <c r="T157" s="18"/>
     </row>
     <row r="158" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T158" s="19"/>
+      <c r="T158" s="18"/>
     </row>
     <row r="159" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T159" s="19"/>
+      <c r="T159" s="18"/>
     </row>
     <row r="160" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T160" s="19"/>
+      <c r="T160" s="18"/>
     </row>
     <row r="161" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T161" s="19"/>
+      <c r="T161" s="18"/>
     </row>
     <row r="162" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T162" s="19"/>
+      <c r="T162" s="18"/>
     </row>
     <row r="163" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T163" s="19"/>
+      <c r="T163" s="18"/>
     </row>
     <row r="164" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T164" s="19"/>
+      <c r="T164" s="18"/>
     </row>
     <row r="165" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T165" s="19"/>
+      <c r="T165" s="18"/>
     </row>
     <row r="166" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T166" s="19"/>
+      <c r="T166" s="18"/>
     </row>
     <row r="167" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T167" s="19"/>
+      <c r="T167" s="18"/>
     </row>
     <row r="168" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T168" s="19"/>
+      <c r="T168" s="18"/>
     </row>
     <row r="169" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T169" s="19"/>
+      <c r="T169" s="18"/>
     </row>
     <row r="170" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T170" s="19"/>
+      <c r="T170" s="18"/>
     </row>
     <row r="171" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T171" s="19"/>
+      <c r="T171" s="18"/>
     </row>
     <row r="172" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T172" s="19"/>
+      <c r="T172" s="18"/>
     </row>
     <row r="173" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T173" s="19"/>
+      <c r="T173" s="18"/>
     </row>
     <row r="174" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T174" s="19"/>
+      <c r="T174" s="18"/>
     </row>
     <row r="175" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T175" s="19"/>
+      <c r="T175" s="18"/>
     </row>
     <row r="176" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T176" s="19"/>
+      <c r="T176" s="18"/>
     </row>
     <row r="177" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T177" s="19"/>
+      <c r="T177" s="18"/>
     </row>
     <row r="178" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T178" s="19"/>
+      <c r="T178" s="18"/>
     </row>
     <row r="179" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T179" s="19"/>
+      <c r="T179" s="18"/>
     </row>
     <row r="180" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T180" s="19"/>
+      <c r="T180" s="18"/>
     </row>
     <row r="181" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T181" s="19"/>
+      <c r="T181" s="18"/>
     </row>
     <row r="182" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T182" s="19"/>
+      <c r="T182" s="18"/>
     </row>
     <row r="183" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T183" s="19"/>
+      <c r="T183" s="18"/>
     </row>
     <row r="184" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T184" s="19"/>
+      <c r="T184" s="18"/>
     </row>
     <row r="185" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T185" s="19"/>
+      <c r="T185" s="18"/>
     </row>
     <row r="186" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T186" s="19"/>
+      <c r="T186" s="18"/>
     </row>
     <row r="187" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T187" s="19"/>
+      <c r="T187" s="18"/>
     </row>
     <row r="188" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T188" s="19"/>
+      <c r="T188" s="18"/>
     </row>
     <row r="189" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T189" s="19"/>
+      <c r="T189" s="18"/>
     </row>
     <row r="190" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T190" s="19"/>
+      <c r="T190" s="18"/>
     </row>
     <row r="191" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T191" s="19"/>
+      <c r="T191" s="18"/>
     </row>
     <row r="192" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T192" s="19"/>
+      <c r="T192" s="18"/>
     </row>
     <row r="193" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T193" s="19"/>
+      <c r="T193" s="18"/>
     </row>
     <row r="194" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T194" s="19"/>
+      <c r="T194" s="18"/>
     </row>
     <row r="195" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T195" s="19"/>
+      <c r="T195" s="18"/>
     </row>
     <row r="196" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T196" s="19"/>
+      <c r="T196" s="18"/>
     </row>
     <row r="197" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T197" s="19"/>
+      <c r="T197" s="18"/>
     </row>
     <row r="198" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T198" s="19"/>
+      <c r="T198" s="18"/>
     </row>
     <row r="199" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T199" s="19"/>
+      <c r="T199" s="18"/>
     </row>
     <row r="200" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T200" s="19"/>
+      <c r="T200" s="18"/>
     </row>
     <row r="201" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T201" s="19"/>
+      <c r="T201" s="18"/>
     </row>
     <row r="202" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T202" s="19"/>
+      <c r="T202" s="18"/>
     </row>
     <row r="203" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T203" s="19"/>
+      <c r="T203" s="18"/>
     </row>
     <row r="204" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T204" s="19"/>
+      <c r="T204" s="18"/>
     </row>
     <row r="205" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T205" s="19"/>
+      <c r="T205" s="18"/>
     </row>
     <row r="206" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T206" s="19"/>
+      <c r="T206" s="18"/>
     </row>
     <row r="207" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T207" s="19"/>
+      <c r="T207" s="18"/>
     </row>
     <row r="208" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T208" s="19"/>
+      <c r="T208" s="18"/>
     </row>
     <row r="209" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T209" s="19"/>
+      <c r="T209" s="18"/>
     </row>
     <row r="210" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T210" s="19"/>
+      <c r="T210" s="18"/>
     </row>
     <row r="211" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T211" s="19"/>
+      <c r="T211" s="18"/>
     </row>
     <row r="212" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T212" s="19"/>
+      <c r="T212" s="18"/>
     </row>
     <row r="213" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T213" s="19"/>
+      <c r="T213" s="18"/>
     </row>
     <row r="214" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T214" s="19"/>
+      <c r="T214" s="18"/>
     </row>
     <row r="215" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T215" s="19"/>
+      <c r="T215" s="18"/>
     </row>
     <row r="216" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T216" s="19"/>
+      <c r="T216" s="18"/>
     </row>
     <row r="217" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T217" s="19"/>
+      <c r="T217" s="18"/>
     </row>
     <row r="218" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T218" s="19"/>
+      <c r="T218" s="18"/>
     </row>
     <row r="219" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T219" s="19"/>
+      <c r="T219" s="18"/>
     </row>
     <row r="220" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T220" s="19"/>
+      <c r="T220" s="18"/>
     </row>
     <row r="221" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T221" s="19"/>
+      <c r="T221" s="18"/>
     </row>
     <row r="222" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T222" s="19"/>
+      <c r="T222" s="18"/>
     </row>
     <row r="223" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T223" s="19"/>
+      <c r="T223" s="18"/>
     </row>
     <row r="224" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T224" s="19"/>
+      <c r="T224" s="18"/>
     </row>
     <row r="225" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T225" s="19"/>
+      <c r="T225" s="18"/>
     </row>
     <row r="226" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T226" s="19"/>
+      <c r="T226" s="18"/>
     </row>
     <row r="227" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T227" s="19"/>
+      <c r="T227" s="18"/>
     </row>
     <row r="228" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T228" s="19"/>
+      <c r="T228" s="18"/>
     </row>
     <row r="229" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T229" s="19"/>
+      <c r="T229" s="18"/>
     </row>
     <row r="230" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T230" s="19"/>
+      <c r="T230" s="18"/>
     </row>
     <row r="231" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T231" s="19"/>
+      <c r="T231" s="18"/>
     </row>
     <row r="232" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T232" s="19"/>
+      <c r="T232" s="18"/>
     </row>
     <row r="233" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T233" s="19"/>
+      <c r="T233" s="18"/>
     </row>
     <row r="234" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T234" s="19"/>
+      <c r="T234" s="18"/>
     </row>
     <row r="235" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T235" s="19"/>
+      <c r="T235" s="18"/>
     </row>
     <row r="236" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T236" s="19"/>
+      <c r="T236" s="18"/>
     </row>
     <row r="237" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T237" s="19"/>
+      <c r="T237" s="18"/>
     </row>
     <row r="238" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T238" s="19"/>
+      <c r="T238" s="18"/>
     </row>
     <row r="239" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T239" s="19"/>
+      <c r="T239" s="18"/>
     </row>
     <row r="240" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T240" s="19"/>
+      <c r="T240" s="18"/>
     </row>
     <row r="241" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T241" s="19"/>
+      <c r="T241" s="18"/>
     </row>
     <row r="242" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T242" s="19"/>
+      <c r="T242" s="18"/>
     </row>
     <row r="243" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T243" s="19"/>
+      <c r="T243" s="18"/>
     </row>
     <row r="244" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T244" s="19"/>
+      <c r="T244" s="18"/>
     </row>
     <row r="245" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T245" s="19"/>
+      <c r="T245" s="18"/>
     </row>
     <row r="246" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T246" s="19"/>
+      <c r="T246" s="18"/>
     </row>
     <row r="247" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T247" s="19"/>
+      <c r="T247" s="18"/>
     </row>
     <row r="248" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T248" s="19"/>
+      <c r="T248" s="18"/>
     </row>
     <row r="249" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T249" s="19"/>
+      <c r="T249" s="18"/>
     </row>
     <row r="250" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T250" s="19"/>
+      <c r="T250" s="18"/>
     </row>
     <row r="251" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T251" s="19"/>
+      <c r="T251" s="18"/>
     </row>
     <row r="252" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T252" s="19"/>
+      <c r="T252" s="18"/>
     </row>
     <row r="253" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T253" s="19"/>
+      <c r="T253" s="18"/>
     </row>
     <row r="254" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T254" s="19"/>
+      <c r="T254" s="18"/>
     </row>
     <row r="255" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T255" s="19"/>
+      <c r="T255" s="18"/>
     </row>
     <row r="256" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T256" s="19"/>
+      <c r="T256" s="18"/>
     </row>
     <row r="257" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T257" s="19"/>
+      <c r="T257" s="18"/>
     </row>
     <row r="258" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T258" s="19"/>
+      <c r="T258" s="18"/>
     </row>
     <row r="259" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T259" s="19"/>
+      <c r="T259" s="18"/>
     </row>
     <row r="260" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T260" s="19"/>
+      <c r="T260" s="18"/>
     </row>
     <row r="261" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T261" s="19"/>
+      <c r="T261" s="18"/>
     </row>
     <row r="262" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T262" s="19"/>
+      <c r="T262" s="18"/>
     </row>
     <row r="263" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T263" s="19"/>
+      <c r="T263" s="18"/>
     </row>
     <row r="264" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T264" s="19"/>
+      <c r="T264" s="18"/>
     </row>
     <row r="265" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T265" s="19"/>
+      <c r="T265" s="18"/>
     </row>
     <row r="266" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T266" s="19"/>
+      <c r="T266" s="18"/>
     </row>
     <row r="267" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T267" s="19"/>
+      <c r="T267" s="18"/>
     </row>
     <row r="268" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T268" s="19"/>
+      <c r="T268" s="18"/>
     </row>
     <row r="269" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T269" s="19"/>
+      <c r="T269" s="18"/>
     </row>
     <row r="270" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T270" s="19"/>
+      <c r="T270" s="18"/>
     </row>
     <row r="271" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T271" s="19"/>
+      <c r="T271" s="18"/>
     </row>
     <row r="272" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T272" s="19"/>
+      <c r="T272" s="18"/>
     </row>
     <row r="273" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T273" s="19"/>
+      <c r="T273" s="18"/>
     </row>
     <row r="274" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T274" s="19"/>
+      <c r="T274" s="18"/>
     </row>
     <row r="275" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T275" s="19"/>
+      <c r="T275" s="18"/>
     </row>
     <row r="276" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T276" s="19"/>
+      <c r="T276" s="18"/>
     </row>
     <row r="277" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T277" s="19"/>
+      <c r="T277" s="18"/>
     </row>
     <row r="278" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T278" s="19"/>
+      <c r="T278" s="18"/>
     </row>
     <row r="279" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T279" s="19"/>
+      <c r="T279" s="18"/>
     </row>
     <row r="280" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T280" s="19"/>
+      <c r="T280" s="18"/>
     </row>
     <row r="281" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T281" s="19"/>
+      <c r="T281" s="18"/>
     </row>
     <row r="282" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T282" s="19"/>
+      <c r="T282" s="18"/>
     </row>
     <row r="283" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T283" s="19"/>
+      <c r="T283" s="18"/>
     </row>
     <row r="284" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T284" s="19"/>
+      <c r="T284" s="18"/>
     </row>
     <row r="285" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T285" s="19"/>
+      <c r="T285" s="18"/>
     </row>
     <row r="286" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T286" s="19"/>
+      <c r="T286" s="18"/>
     </row>
     <row r="287" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T287" s="19"/>
+      <c r="T287" s="18"/>
     </row>
     <row r="288" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T288" s="19"/>
+      <c r="T288" s="18"/>
     </row>
     <row r="289" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T289" s="19"/>
+      <c r="T289" s="18"/>
     </row>
     <row r="290" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T290" s="19"/>
+      <c r="T290" s="18"/>
     </row>
     <row r="291" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T291" s="19"/>
+      <c r="T291" s="18"/>
     </row>
     <row r="292" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T292" s="19"/>
+      <c r="T292" s="18"/>
     </row>
     <row r="293" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T293" s="19"/>
+      <c r="T293" s="18"/>
     </row>
     <row r="294" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T294" s="19"/>
+      <c r="T294" s="18"/>
     </row>
     <row r="295" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T295" s="19"/>
+      <c r="T295" s="18"/>
     </row>
     <row r="296" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T296" s="19"/>
+      <c r="T296" s="18"/>
     </row>
     <row r="297" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T297" s="19"/>
+      <c r="T297" s="18"/>
     </row>
     <row r="298" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T298" s="19"/>
+      <c r="T298" s="18"/>
     </row>
     <row r="299" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T299" s="19"/>
+      <c r="T299" s="18"/>
     </row>
     <row r="300" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T300" s="19"/>
+      <c r="T300" s="18"/>
     </row>
     <row r="301" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T301" s="19"/>
+      <c r="T301" s="18"/>
     </row>
     <row r="302" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T302" s="19"/>
+      <c r="T302" s="18"/>
     </row>
     <row r="303" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T303" s="19"/>
+      <c r="T303" s="18"/>
     </row>
     <row r="304" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T304" s="19"/>
+      <c r="T304" s="18"/>
     </row>
     <row r="305" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T305" s="19"/>
+      <c r="T305" s="18"/>
     </row>
     <row r="306" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T306" s="19"/>
+      <c r="T306" s="18"/>
     </row>
     <row r="307" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T307" s="19"/>
+      <c r="T307" s="18"/>
     </row>
     <row r="308" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T308" s="19"/>
+      <c r="T308" s="18"/>
     </row>
     <row r="309" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T309" s="19"/>
+      <c r="T309" s="18"/>
     </row>
     <row r="310" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T310" s="19"/>
+      <c r="T310" s="18"/>
     </row>
     <row r="311" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T311" s="19"/>
+      <c r="T311" s="18"/>
     </row>
     <row r="312" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T312" s="19"/>
+      <c r="T312" s="18"/>
     </row>
     <row r="313" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T313" s="19"/>
+      <c r="T313" s="18"/>
     </row>
     <row r="314" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T314" s="19"/>
+      <c r="T314" s="18"/>
     </row>
     <row r="315" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T315" s="19"/>
+      <c r="T315" s="18"/>
     </row>
     <row r="316" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T316" s="19"/>
+      <c r="T316" s="18"/>
     </row>
     <row r="317" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T317" s="19"/>
+      <c r="T317" s="18"/>
     </row>
     <row r="318" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T318" s="19"/>
+      <c r="T318" s="18"/>
     </row>
     <row r="319" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T319" s="19"/>
+      <c r="T319" s="18"/>
     </row>
     <row r="320" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T320" s="19"/>
+      <c r="T320" s="18"/>
     </row>
     <row r="321" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T321" s="19"/>
+      <c r="T321" s="18"/>
     </row>
     <row r="322" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T322" s="19"/>
+      <c r="T322" s="18"/>
     </row>
     <row r="323" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T323" s="19"/>
+      <c r="T323" s="18"/>
     </row>
     <row r="324" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T324" s="19"/>
+      <c r="T324" s="18"/>
     </row>
     <row r="325" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T325" s="19"/>
+      <c r="T325" s="18"/>
     </row>
     <row r="326" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T326" s="19"/>
+      <c r="T326" s="18"/>
     </row>
     <row r="327" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T327" s="19"/>
+      <c r="T327" s="18"/>
     </row>
     <row r="328" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T328" s="19"/>
+      <c r="T328" s="18"/>
     </row>
     <row r="329" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T329" s="19"/>
+      <c r="T329" s="18"/>
     </row>
     <row r="330" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T330" s="19"/>
+      <c r="T330" s="18"/>
     </row>
     <row r="331" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T331" s="19"/>
+      <c r="T331" s="18"/>
     </row>
     <row r="332" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T332" s="19"/>
+      <c r="T332" s="18"/>
     </row>
     <row r="333" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T333" s="19"/>
+      <c r="T333" s="18"/>
     </row>
     <row r="334" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T334" s="19"/>
+      <c r="T334" s="18"/>
     </row>
     <row r="335" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T335" s="19"/>
+      <c r="T335" s="18"/>
     </row>
     <row r="336" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T336" s="19"/>
+      <c r="T336" s="18"/>
     </row>
     <row r="337" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T337" s="19"/>
+      <c r="T337" s="18"/>
     </row>
     <row r="338" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T338" s="19"/>
+      <c r="T338" s="18"/>
     </row>
     <row r="339" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T339" s="19"/>
+      <c r="T339" s="18"/>
     </row>
     <row r="340" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T340" s="19"/>
+      <c r="T340" s="18"/>
     </row>
     <row r="341" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T341" s="19"/>
+      <c r="T341" s="18"/>
     </row>
     <row r="342" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T342" s="19"/>
+      <c r="T342" s="18"/>
     </row>
     <row r="343" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T343" s="19"/>
+      <c r="T343" s="18"/>
     </row>
     <row r="344" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T344" s="19"/>
+      <c r="T344" s="18"/>
     </row>
     <row r="345" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T345" s="19"/>
+      <c r="T345" s="18"/>
     </row>
     <row r="346" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T346" s="19"/>
+      <c r="T346" s="18"/>
     </row>
     <row r="347" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T347" s="19"/>
+      <c r="T347" s="18"/>
     </row>
     <row r="348" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T348" s="19"/>
+      <c r="T348" s="18"/>
     </row>
     <row r="349" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T349" s="19"/>
+      <c r="T349" s="18"/>
     </row>
     <row r="350" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T350" s="19"/>
+      <c r="T350" s="18"/>
     </row>
     <row r="351" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T351" s="19"/>
+      <c r="T351" s="18"/>
     </row>
     <row r="352" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T352" s="19"/>
+      <c r="T352" s="18"/>
     </row>
     <row r="353" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T353" s="19"/>
+      <c r="T353" s="18"/>
     </row>
     <row r="354" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T354" s="19"/>
+      <c r="T354" s="18"/>
     </row>
     <row r="355" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T355" s="19"/>
+      <c r="T355" s="18"/>
     </row>
     <row r="356" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T356" s="19"/>
+      <c r="T356" s="18"/>
     </row>
     <row r="357" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T357" s="19"/>
+      <c r="T357" s="18"/>
     </row>
     <row r="358" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T358" s="19"/>
+      <c r="T358" s="18"/>
     </row>
     <row r="359" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T359" s="19"/>
+      <c r="T359" s="18"/>
     </row>
     <row r="360" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T360" s="19"/>
+      <c r="T360" s="18"/>
     </row>
     <row r="361" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T361" s="19"/>
+      <c r="T361" s="18"/>
     </row>
     <row r="362" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T362" s="19"/>
+      <c r="T362" s="18"/>
     </row>
     <row r="363" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T363" s="19"/>
+      <c r="T363" s="18"/>
     </row>
     <row r="364" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T364" s="19"/>
+      <c r="T364" s="18"/>
     </row>
     <row r="365" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T365" s="19"/>
+      <c r="T365" s="18"/>
     </row>
     <row r="366" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T366" s="19"/>
+      <c r="T366" s="18"/>
     </row>
     <row r="367" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T367" s="19"/>
+      <c r="T367" s="18"/>
     </row>
     <row r="368" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T368" s="19"/>
+      <c r="T368" s="18"/>
     </row>
     <row r="369" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T369" s="19"/>
+      <c r="T369" s="18"/>
     </row>
     <row r="370" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T370" s="19"/>
+      <c r="T370" s="18"/>
     </row>
     <row r="371" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T371" s="19"/>
+      <c r="T371" s="18"/>
     </row>
     <row r="372" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T372" s="19"/>
+      <c r="T372" s="18"/>
     </row>
     <row r="373" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T373" s="19"/>
+      <c r="T373" s="18"/>
     </row>
     <row r="374" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T374" s="19"/>
+      <c r="T374" s="18"/>
     </row>
     <row r="375" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T375" s="19"/>
+      <c r="T375" s="18"/>
     </row>
     <row r="376" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T376" s="19"/>
+      <c r="T376" s="18"/>
     </row>
     <row r="377" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T377" s="19"/>
+      <c r="T377" s="18"/>
     </row>
     <row r="378" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T378" s="19"/>
+      <c r="T378" s="18"/>
     </row>
     <row r="379" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T379" s="19"/>
+      <c r="T379" s="18"/>
     </row>
     <row r="380" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T380" s="19"/>
+      <c r="T380" s="18"/>
     </row>
     <row r="381" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T381" s="19"/>
+      <c r="T381" s="18"/>
     </row>
     <row r="382" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T382" s="19"/>
+      <c r="T382" s="18"/>
     </row>
     <row r="383" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T383" s="19"/>
+      <c r="T383" s="18"/>
     </row>
     <row r="384" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T384" s="19"/>
+      <c r="T384" s="18"/>
     </row>
     <row r="385" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T385" s="19"/>
+      <c r="T385" s="18"/>
     </row>
     <row r="386" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T386" s="19"/>
+      <c r="T386" s="18"/>
     </row>
     <row r="387" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T387" s="19"/>
+      <c r="T387" s="18"/>
     </row>
     <row r="388" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T388" s="19"/>
+      <c r="T388" s="18"/>
     </row>
     <row r="389" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T389" s="19"/>
+      <c r="T389" s="18"/>
     </row>
     <row r="390" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T390" s="19"/>
+      <c r="T390" s="18"/>
     </row>
     <row r="391" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T391" s="19"/>
+      <c r="T391" s="18"/>
     </row>
     <row r="392" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T392" s="19"/>
+      <c r="T392" s="18"/>
     </row>
     <row r="393" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T393" s="19"/>
+      <c r="T393" s="18"/>
     </row>
     <row r="394" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T394" s="19"/>
+      <c r="T394" s="18"/>
     </row>
     <row r="395" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T395" s="19"/>
+      <c r="T395" s="18"/>
     </row>
     <row r="396" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T396" s="19"/>
+      <c r="T396" s="18"/>
     </row>
     <row r="397" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T397" s="19"/>
+      <c r="T397" s="18"/>
     </row>
     <row r="398" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T398" s="19"/>
+      <c r="T398" s="18"/>
     </row>
     <row r="399" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T399" s="19"/>
+      <c r="T399" s="18"/>
     </row>
     <row r="400" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T400" s="19"/>
+      <c r="T400" s="18"/>
     </row>
     <row r="401" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T401" s="19"/>
+      <c r="T401" s="18"/>
     </row>
     <row r="402" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T402" s="19"/>
+      <c r="T402" s="18"/>
     </row>
     <row r="403" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T403" s="19"/>
+      <c r="T403" s="18"/>
     </row>
     <row r="404" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T404" s="19"/>
+      <c r="T404" s="18"/>
     </row>
     <row r="405" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T405" s="19"/>
+      <c r="T405" s="18"/>
     </row>
     <row r="406" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T406" s="19"/>
+      <c r="T406" s="18"/>
     </row>
     <row r="407" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T407" s="19"/>
+      <c r="T407" s="18"/>
     </row>
     <row r="408" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T408" s="19"/>
+      <c r="T408" s="18"/>
     </row>
     <row r="409" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T409" s="19"/>
+      <c r="T409" s="18"/>
     </row>
     <row r="410" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T410" s="19"/>
+      <c r="T410" s="18"/>
     </row>
     <row r="411" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T411" s="19"/>
+      <c r="T411" s="18"/>
     </row>
     <row r="412" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T412" s="19"/>
+      <c r="T412" s="18"/>
     </row>
     <row r="413" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T413" s="19"/>
+      <c r="T413" s="18"/>
     </row>
     <row r="414" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T414" s="19"/>
+      <c r="T414" s="18"/>
     </row>
     <row r="415" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T415" s="19"/>
+      <c r="T415" s="18"/>
     </row>
     <row r="416" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T416" s="19"/>
+      <c r="T416" s="18"/>
     </row>
     <row r="417" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T417" s="19"/>
+      <c r="T417" s="18"/>
     </row>
     <row r="418" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T418" s="19"/>
+      <c r="T418" s="18"/>
     </row>
     <row r="419" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T419" s="19"/>
+      <c r="T419" s="18"/>
     </row>
     <row r="420" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T420" s="19"/>
+      <c r="T420" s="18"/>
     </row>
     <row r="421" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T421" s="19"/>
+      <c r="T421" s="18"/>
     </row>
     <row r="422" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T422" s="19"/>
+      <c r="T422" s="18"/>
     </row>
     <row r="423" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T423" s="19"/>
+      <c r="T423" s="18"/>
     </row>
     <row r="424" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T424" s="19"/>
+      <c r="T424" s="18"/>
     </row>
     <row r="425" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T425" s="19"/>
+      <c r="T425" s="18"/>
     </row>
     <row r="426" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T426" s="19"/>
+      <c r="T426" s="18"/>
     </row>
     <row r="427" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T427" s="19"/>
+      <c r="T427" s="18"/>
     </row>
     <row r="428" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T428" s="19"/>
+      <c r="T428" s="18"/>
     </row>
     <row r="429" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T429" s="19"/>
+      <c r="T429" s="18"/>
     </row>
     <row r="430" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T430" s="19"/>
+      <c r="T430" s="18"/>
     </row>
     <row r="431" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T431" s="19"/>
+      <c r="T431" s="18"/>
     </row>
     <row r="432" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T432" s="19"/>
+      <c r="T432" s="18"/>
     </row>
     <row r="433" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T433" s="19"/>
+      <c r="T433" s="18"/>
     </row>
     <row r="434" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T434" s="19"/>
+      <c r="T434" s="18"/>
     </row>
     <row r="435" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T435" s="19"/>
+      <c r="T435" s="18"/>
     </row>
     <row r="436" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T436" s="19"/>
+      <c r="T436" s="18"/>
     </row>
     <row r="437" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T437" s="19"/>
+      <c r="T437" s="18"/>
     </row>
     <row r="438" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T438" s="19"/>
+      <c r="T438" s="18"/>
     </row>
     <row r="439" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T439" s="19"/>
+      <c r="T439" s="18"/>
     </row>
     <row r="440" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T440" s="19"/>
+      <c r="T440" s="18"/>
     </row>
     <row r="441" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T441" s="19"/>
+      <c r="T441" s="18"/>
     </row>
     <row r="442" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T442" s="19"/>
+      <c r="T442" s="18"/>
     </row>
     <row r="443" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T443" s="19"/>
+      <c r="T443" s="18"/>
     </row>
     <row r="444" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T444" s="19"/>
+      <c r="T444" s="18"/>
     </row>
     <row r="445" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T445" s="19"/>
+      <c r="T445" s="18"/>
     </row>
     <row r="446" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T446" s="19"/>
+      <c r="T446" s="18"/>
     </row>
     <row r="447" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T447" s="19"/>
+      <c r="T447" s="18"/>
     </row>
     <row r="448" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T448" s="19"/>
+      <c r="T448" s="18"/>
     </row>
     <row r="449" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T449" s="19"/>
+      <c r="T449" s="18"/>
     </row>
     <row r="450" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T450" s="19"/>
+      <c r="T450" s="18"/>
     </row>
     <row r="451" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T451" s="19"/>
+      <c r="T451" s="18"/>
     </row>
     <row r="452" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T452" s="19"/>
+      <c r="T452" s="18"/>
     </row>
     <row r="453" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T453" s="19"/>
+      <c r="T453" s="18"/>
     </row>
     <row r="454" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T454" s="19"/>
+      <c r="T454" s="18"/>
     </row>
     <row r="455" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T455" s="19"/>
+      <c r="T455" s="18"/>
     </row>
     <row r="456" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T456" s="19"/>
+      <c r="T456" s="18"/>
     </row>
     <row r="457" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T457" s="19"/>
+      <c r="T457" s="18"/>
     </row>
     <row r="458" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T458" s="19"/>
+      <c r="T458" s="18"/>
     </row>
     <row r="459" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T459" s="19"/>
+      <c r="T459" s="18"/>
     </row>
     <row r="460" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T460" s="19"/>
+      <c r="T460" s="18"/>
     </row>
     <row r="461" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T461" s="19"/>
+      <c r="T461" s="18"/>
     </row>
     <row r="462" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T462" s="19"/>
+      <c r="T462" s="18"/>
     </row>
     <row r="463" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T463" s="19"/>
+      <c r="T463" s="18"/>
     </row>
     <row r="464" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T464" s="19"/>
+      <c r="T464" s="18"/>
     </row>
     <row r="465" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T465" s="19"/>
+      <c r="T465" s="18"/>
     </row>
     <row r="466" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T466" s="19"/>
+      <c r="T466" s="18"/>
     </row>
     <row r="467" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T467" s="19"/>
+      <c r="T467" s="18"/>
     </row>
     <row r="468" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T468" s="19"/>
+      <c r="T468" s="18"/>
     </row>
     <row r="469" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T469" s="19"/>
+      <c r="T469" s="18"/>
     </row>
     <row r="470" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T470" s="19"/>
+      <c r="T470" s="18"/>
     </row>
     <row r="471" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T471" s="19"/>
+      <c r="T471" s="18"/>
     </row>
     <row r="472" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T472" s="19"/>
+      <c r="T472" s="18"/>
     </row>
     <row r="473" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T473" s="19"/>
+      <c r="T473" s="18"/>
     </row>
     <row r="474" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T474" s="19"/>
+      <c r="T474" s="18"/>
     </row>
     <row r="475" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T475" s="19"/>
+      <c r="T475" s="18"/>
     </row>
     <row r="476" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T476" s="19"/>
+      <c r="T476" s="18"/>
     </row>
     <row r="477" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T477" s="19"/>
+      <c r="T477" s="18"/>
     </row>
     <row r="478" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T478" s="19"/>
+      <c r="T478" s="18"/>
     </row>
     <row r="479" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T479" s="19"/>
+      <c r="T479" s="18"/>
     </row>
     <row r="480" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T480" s="19"/>
+      <c r="T480" s="18"/>
     </row>
     <row r="481" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T481" s="19"/>
+      <c r="T481" s="18"/>
     </row>
     <row r="482" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T482" s="19"/>
+      <c r="T482" s="18"/>
     </row>
     <row r="483" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T483" s="19"/>
+      <c r="T483" s="18"/>
     </row>
     <row r="484" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T484" s="19"/>
+      <c r="T484" s="18"/>
     </row>
     <row r="485" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T485" s="19"/>
+      <c r="T485" s="18"/>
     </row>
     <row r="486" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T486" s="19"/>
+      <c r="T486" s="18"/>
     </row>
     <row r="487" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T487" s="19"/>
+      <c r="T487" s="18"/>
     </row>
     <row r="488" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T488" s="19"/>
+      <c r="T488" s="18"/>
     </row>
     <row r="489" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T489" s="19"/>
+      <c r="T489" s="18"/>
     </row>
     <row r="490" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T490" s="19"/>
+      <c r="T490" s="18"/>
     </row>
     <row r="491" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T491" s="19"/>
+      <c r="T491" s="18"/>
     </row>
     <row r="492" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T492" s="19"/>
+      <c r="T492" s="18"/>
     </row>
     <row r="493" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T493" s="19"/>
+      <c r="T493" s="18"/>
     </row>
     <row r="494" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T494" s="19"/>
+      <c r="T494" s="18"/>
     </row>
     <row r="495" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T495" s="19"/>
+      <c r="T495" s="18"/>
     </row>
     <row r="496" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T496" s="19"/>
+      <c r="T496" s="18"/>
     </row>
     <row r="497" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T497" s="19"/>
+      <c r="T497" s="18"/>
     </row>
     <row r="498" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T498" s="19"/>
+      <c r="T498" s="18"/>
     </row>
     <row r="499" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T499" s="19"/>
+      <c r="T499" s="18"/>
     </row>
     <row r="500" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T500" s="19"/>
+      <c r="T500" s="18"/>
     </row>
     <row r="501" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T501" s="19"/>
+      <c r="T501" s="18"/>
     </row>
     <row r="502" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T502" s="19"/>
+      <c r="T502" s="18"/>
     </row>
     <row r="503" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T503" s="19"/>
+      <c r="T503" s="18"/>
     </row>
     <row r="504" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T504" s="19"/>
+      <c r="T504" s="18"/>
     </row>
     <row r="505" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T505" s="19"/>
+      <c r="T505" s="18"/>
     </row>
     <row r="506" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T506" s="19"/>
+      <c r="T506" s="18"/>
     </row>
     <row r="507" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T507" s="19"/>
+      <c r="T507" s="18"/>
     </row>
     <row r="508" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T508" s="19"/>
+      <c r="T508" s="18"/>
     </row>
     <row r="509" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T509" s="19"/>
+      <c r="T509" s="18"/>
     </row>
     <row r="510" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T510" s="19"/>
+      <c r="T510" s="18"/>
     </row>
     <row r="511" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T511" s="19"/>
+      <c r="T511" s="18"/>
     </row>
     <row r="512" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T512" s="19"/>
+      <c r="T512" s="18"/>
     </row>
     <row r="513" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T513" s="19"/>
+      <c r="T513" s="18"/>
     </row>
     <row r="514" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T514" s="19"/>
+      <c r="T514" s="18"/>
     </row>
     <row r="515" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T515" s="19"/>
+      <c r="T515" s="18"/>
     </row>
     <row r="516" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T516" s="19"/>
+      <c r="T516" s="18"/>
     </row>
     <row r="517" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T517" s="19"/>
+      <c r="T517" s="18"/>
     </row>
     <row r="518" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T518" s="19"/>
+      <c r="T518" s="18"/>
     </row>
     <row r="519" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T519" s="19"/>
+      <c r="T519" s="18"/>
     </row>
     <row r="520" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T520" s="19"/>
+      <c r="T520" s="18"/>
     </row>
     <row r="521" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T521" s="19"/>
+      <c r="T521" s="18"/>
     </row>
     <row r="522" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T522" s="19"/>
+      <c r="T522" s="18"/>
     </row>
     <row r="523" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T523" s="19"/>
+      <c r="T523" s="18"/>
     </row>
     <row r="524" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T524" s="19"/>
+      <c r="T524" s="18"/>
     </row>
     <row r="525" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T525" s="19"/>
+      <c r="T525" s="18"/>
     </row>
     <row r="526" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T526" s="19"/>
+      <c r="T526" s="18"/>
     </row>
     <row r="527" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T527" s="19"/>
+      <c r="T527" s="18"/>
     </row>
     <row r="528" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T528" s="19"/>
+      <c r="T528" s="18"/>
     </row>
     <row r="529" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T529" s="19"/>
+      <c r="T529" s="18"/>
     </row>
     <row r="530" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T530" s="19"/>
+      <c r="T530" s="18"/>
     </row>
     <row r="531" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T531" s="19"/>
+      <c r="T531" s="18"/>
     </row>
     <row r="532" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T532" s="19"/>
+      <c r="T532" s="18"/>
     </row>
     <row r="533" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T533" s="19"/>
+      <c r="T533" s="18"/>
     </row>
     <row r="534" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T534" s="19"/>
+      <c r="T534" s="18"/>
     </row>
     <row r="535" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T535" s="19"/>
+      <c r="T535" s="18"/>
     </row>
     <row r="536" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T536" s="19"/>
+      <c r="T536" s="18"/>
     </row>
     <row r="537" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T537" s="19"/>
+      <c r="T537" s="18"/>
     </row>
     <row r="538" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T538" s="19"/>
+      <c r="T538" s="18"/>
     </row>
     <row r="539" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T539" s="19"/>
+      <c r="T539" s="18"/>
     </row>
     <row r="540" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T540" s="19"/>
+      <c r="T540" s="18"/>
     </row>
     <row r="541" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T541" s="19"/>
+      <c r="T541" s="18"/>
     </row>
     <row r="542" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T542" s="19"/>
+      <c r="T542" s="18"/>
     </row>
     <row r="543" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T543" s="19"/>
+      <c r="T543" s="18"/>
     </row>
     <row r="544" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T544" s="19"/>
+      <c r="T544" s="18"/>
     </row>
     <row r="545" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T545" s="19"/>
+      <c r="T545" s="18"/>
     </row>
     <row r="546" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T546" s="19"/>
+      <c r="T546" s="18"/>
     </row>
     <row r="547" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T547" s="19"/>
+      <c r="T547" s="18"/>
     </row>
     <row r="548" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T548" s="19"/>
+      <c r="T548" s="18"/>
     </row>
     <row r="549" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T549" s="19"/>
+      <c r="T549" s="18"/>
     </row>
     <row r="550" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T550" s="19"/>
+      <c r="T550" s="18"/>
     </row>
     <row r="551" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T551" s="19"/>
+      <c r="T551" s="18"/>
     </row>
     <row r="552" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T552" s="19"/>
+      <c r="T552" s="18"/>
     </row>
     <row r="553" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T553" s="19"/>
+      <c r="T553" s="18"/>
     </row>
     <row r="554" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T554" s="19"/>
+      <c r="T554" s="18"/>
     </row>
     <row r="555" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T555" s="19"/>
+      <c r="T555" s="18"/>
     </row>
     <row r="556" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T556" s="19"/>
+      <c r="T556" s="18"/>
     </row>
     <row r="557" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T557" s="19"/>
+      <c r="T557" s="18"/>
     </row>
     <row r="558" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T558" s="19"/>
+      <c r="T558" s="18"/>
     </row>
     <row r="559" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T559" s="19"/>
+      <c r="T559" s="18"/>
     </row>
     <row r="560" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T560" s="19"/>
+      <c r="T560" s="18"/>
     </row>
     <row r="561" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T561" s="19"/>
+      <c r="T561" s="18"/>
     </row>
     <row r="562" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T562" s="19"/>
+      <c r="T562" s="18"/>
     </row>
     <row r="563" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T563" s="19"/>
+      <c r="T563" s="18"/>
     </row>
     <row r="564" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T564" s="19"/>
+      <c r="T564" s="18"/>
     </row>
     <row r="565" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T565" s="19"/>
+      <c r="T565" s="18"/>
     </row>
     <row r="566" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T566" s="19"/>
+      <c r="T566" s="18"/>
     </row>
     <row r="567" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T567" s="19"/>
+      <c r="T567" s="18"/>
     </row>
     <row r="568" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T568" s="19"/>
+      <c r="T568" s="18"/>
     </row>
     <row r="569" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T569" s="19"/>
+      <c r="T569" s="18"/>
     </row>
     <row r="570" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T570" s="19"/>
+      <c r="T570" s="18"/>
     </row>
     <row r="571" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T571" s="19"/>
+      <c r="T571" s="18"/>
     </row>
     <row r="572" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T572" s="19"/>
+      <c r="T572" s="18"/>
     </row>
     <row r="573" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T573" s="19"/>
+      <c r="T573" s="18"/>
     </row>
     <row r="574" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T574" s="19"/>
+      <c r="T574" s="18"/>
     </row>
     <row r="575" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T575" s="19"/>
+      <c r="T575" s="18"/>
     </row>
     <row r="576" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T576" s="19"/>
+      <c r="T576" s="18"/>
     </row>
     <row r="577" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T577" s="19"/>
+      <c r="T577" s="18"/>
     </row>
     <row r="578" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T578" s="19"/>
+      <c r="T578" s="18"/>
     </row>
     <row r="579" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T579" s="19"/>
+      <c r="T579" s="18"/>
     </row>
     <row r="580" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T580" s="19"/>
+      <c r="T580" s="18"/>
     </row>
     <row r="581" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T581" s="19"/>
+      <c r="T581" s="18"/>
     </row>
     <row r="582" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T582" s="19"/>
+      <c r="T582" s="18"/>
     </row>
     <row r="583" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T583" s="19"/>
+      <c r="T583" s="18"/>
     </row>
     <row r="584" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T584" s="19"/>
+      <c r="T584" s="18"/>
     </row>
     <row r="585" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T585" s="19"/>
+      <c r="T585" s="18"/>
     </row>
     <row r="586" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T586" s="19"/>
+      <c r="T586" s="18"/>
     </row>
     <row r="587" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T587" s="19"/>
+      <c r="T587" s="18"/>
     </row>
     <row r="588" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T588" s="19"/>
+      <c r="T588" s="18"/>
     </row>
     <row r="589" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T589" s="19"/>
+      <c r="T589" s="18"/>
     </row>
     <row r="590" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T590" s="19"/>
+      <c r="T590" s="18"/>
     </row>
     <row r="591" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T591" s="19"/>
+      <c r="T591" s="18"/>
     </row>
     <row r="592" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T592" s="19"/>
+      <c r="T592" s="18"/>
     </row>
     <row r="593" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T593" s="19"/>
+      <c r="T593" s="18"/>
     </row>
     <row r="594" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T594" s="19"/>
+      <c r="T594" s="18"/>
     </row>
     <row r="595" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T595" s="19"/>
+      <c r="T595" s="18"/>
     </row>
     <row r="596" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T596" s="19"/>
+      <c r="T596" s="18"/>
     </row>
     <row r="597" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T597" s="19"/>
+      <c r="T597" s="18"/>
     </row>
     <row r="598" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T598" s="19"/>
+      <c r="T598" s="18"/>
     </row>
     <row r="599" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T599" s="19"/>
+      <c r="T599" s="18"/>
     </row>
     <row r="600" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T600" s="19"/>
+      <c r="T600" s="18"/>
     </row>
     <row r="601" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T601" s="19"/>
+      <c r="T601" s="18"/>
     </row>
     <row r="602" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T602" s="19"/>
+      <c r="T602" s="18"/>
     </row>
     <row r="603" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T603" s="19"/>
+      <c r="T603" s="18"/>
     </row>
     <row r="604" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T604" s="19"/>
+      <c r="T604" s="18"/>
     </row>
     <row r="605" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T605" s="19"/>
+      <c r="T605" s="18"/>
     </row>
     <row r="606" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T606" s="19"/>
+      <c r="T606" s="18"/>
     </row>
     <row r="607" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T607" s="19"/>
+      <c r="T607" s="18"/>
     </row>
     <row r="608" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T608" s="19"/>
+      <c r="T608" s="18"/>
     </row>
     <row r="609" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T609" s="19"/>
+      <c r="T609" s="18"/>
     </row>
     <row r="610" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T610" s="19"/>
+      <c r="T610" s="18"/>
     </row>
     <row r="611" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T611" s="19"/>
+      <c r="T611" s="18"/>
     </row>
     <row r="612" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T612" s="19"/>
+      <c r="T612" s="18"/>
     </row>
     <row r="613" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T613" s="19"/>
+      <c r="T613" s="18"/>
     </row>
     <row r="614" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T614" s="19"/>
+      <c r="T614" s="18"/>
     </row>
     <row r="615" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T615" s="19"/>
+      <c r="T615" s="18"/>
     </row>
     <row r="616" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T616" s="19"/>
+      <c r="T616" s="18"/>
     </row>
     <row r="617" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T617" s="19"/>
+      <c r="T617" s="18"/>
     </row>
     <row r="618" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T618" s="19"/>
+      <c r="T618" s="18"/>
     </row>
     <row r="619" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T619" s="19"/>
+      <c r="T619" s="18"/>
     </row>
     <row r="620" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T620" s="19"/>
+      <c r="T620" s="18"/>
     </row>
     <row r="621" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T621" s="19"/>
+      <c r="T621" s="18"/>
     </row>
     <row r="622" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T622" s="19"/>
+      <c r="T622" s="18"/>
     </row>
     <row r="623" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T623" s="19"/>
+      <c r="T623" s="18"/>
     </row>
     <row r="624" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T624" s="19"/>
+      <c r="T624" s="18"/>
     </row>
     <row r="625" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T625" s="19"/>
+      <c r="T625" s="18"/>
     </row>
     <row r="626" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T626" s="19"/>
+      <c r="T626" s="18"/>
     </row>
     <row r="627" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T627" s="19"/>
+      <c r="T627" s="18"/>
     </row>
     <row r="628" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T628" s="19"/>
+      <c r="T628" s="18"/>
     </row>
     <row r="629" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T629" s="19"/>
+      <c r="T629" s="18"/>
     </row>
     <row r="630" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T630" s="19"/>
+      <c r="T630" s="18"/>
     </row>
     <row r="631" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T631" s="19"/>
+      <c r="T631" s="18"/>
     </row>
     <row r="632" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T632" s="19"/>
+      <c r="T632" s="18"/>
     </row>
     <row r="633" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T633" s="19"/>
+      <c r="T633" s="18"/>
     </row>
     <row r="634" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T634" s="19"/>
+      <c r="T634" s="18"/>
     </row>
     <row r="635" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T635" s="19"/>
+      <c r="T635" s="18"/>
     </row>
     <row r="636" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T636" s="19"/>
+      <c r="T636" s="18"/>
     </row>
     <row r="637" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T637" s="19"/>
+      <c r="T637" s="18"/>
     </row>
     <row r="638" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T638" s="19"/>
+      <c r="T638" s="18"/>
     </row>
     <row r="639" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T639" s="19"/>
+      <c r="T639" s="18"/>
     </row>
     <row r="640" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T640" s="19"/>
+      <c r="T640" s="18"/>
     </row>
     <row r="641" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T641" s="19"/>
+      <c r="T641" s="18"/>
     </row>
     <row r="642" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T642" s="19"/>
+      <c r="T642" s="18"/>
     </row>
     <row r="643" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T643" s="19"/>
+      <c r="T643" s="18"/>
     </row>
     <row r="644" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T644" s="19"/>
+      <c r="T644" s="18"/>
     </row>
     <row r="645" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T645" s="19"/>
+      <c r="T645" s="18"/>
     </row>
     <row r="646" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T646" s="19"/>
+      <c r="T646" s="18"/>
     </row>
     <row r="647" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T647" s="19"/>
+      <c r="T647" s="18"/>
     </row>
     <row r="648" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T648" s="19"/>
+      <c r="T648" s="18"/>
     </row>
     <row r="649" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T649" s="19"/>
+      <c r="T649" s="18"/>
     </row>
     <row r="650" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T650" s="19"/>
+      <c r="T650" s="18"/>
     </row>
     <row r="651" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T651" s="19"/>
+      <c r="T651" s="18"/>
     </row>
     <row r="652" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T652" s="19"/>
+      <c r="T652" s="18"/>
     </row>
     <row r="653" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T653" s="19"/>
+      <c r="T653" s="18"/>
     </row>
     <row r="654" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T654" s="19"/>
+      <c r="T654" s="18"/>
     </row>
     <row r="655" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T655" s="19"/>
+      <c r="T655" s="18"/>
     </row>
     <row r="656" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T656" s="19"/>
+      <c r="T656" s="18"/>
     </row>
     <row r="657" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T657" s="19"/>
+      <c r="T657" s="18"/>
     </row>
     <row r="658" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T658" s="19"/>
+      <c r="T658" s="18"/>
     </row>
     <row r="659" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T659" s="19"/>
+      <c r="T659" s="18"/>
     </row>
     <row r="660" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T660" s="19"/>
+      <c r="T660" s="18"/>
     </row>
     <row r="661" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T661" s="19"/>
+      <c r="T661" s="18"/>
     </row>
     <row r="662" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T662" s="19"/>
+      <c r="T662" s="18"/>
     </row>
     <row r="663" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T663" s="19"/>
+      <c r="T663" s="18"/>
     </row>
     <row r="664" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T664" s="19"/>
+      <c r="T664" s="18"/>
     </row>
     <row r="665" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T665" s="19"/>
+      <c r="T665" s="18"/>
     </row>
     <row r="666" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T666" s="19"/>
+      <c r="T666" s="18"/>
     </row>
     <row r="667" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T667" s="19"/>
+      <c r="T667" s="18"/>
     </row>
     <row r="668" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T668" s="19"/>
+      <c r="T668" s="18"/>
     </row>
     <row r="669" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T669" s="19"/>
+      <c r="T669" s="18"/>
     </row>
     <row r="670" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T670" s="19"/>
+      <c r="T670" s="18"/>
     </row>
     <row r="671" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T671" s="19"/>
+      <c r="T671" s="18"/>
     </row>
     <row r="672" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T672" s="19"/>
+      <c r="T672" s="18"/>
     </row>
     <row r="673" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T673" s="19"/>
+      <c r="T673" s="18"/>
     </row>
     <row r="674" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T674" s="19"/>
+      <c r="T674" s="18"/>
     </row>
     <row r="675" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T675" s="19"/>
+      <c r="T675" s="18"/>
     </row>
     <row r="676" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T676" s="19"/>
+      <c r="T676" s="18"/>
     </row>
     <row r="677" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T677" s="19"/>
+      <c r="T677" s="18"/>
     </row>
     <row r="678" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T678" s="19"/>
+      <c r="T678" s="18"/>
     </row>
     <row r="679" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T679" s="19"/>
+      <c r="T679" s="18"/>
     </row>
     <row r="680" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T680" s="19"/>
+      <c r="T680" s="18"/>
     </row>
     <row r="681" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T681" s="19"/>
+      <c r="T681" s="18"/>
     </row>
     <row r="682" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T682" s="19"/>
+      <c r="T682" s="18"/>
     </row>
     <row r="683" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T683" s="19"/>
+      <c r="T683" s="18"/>
     </row>
     <row r="684" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T684" s="19"/>
+      <c r="T684" s="18"/>
     </row>
     <row r="685" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T685" s="19"/>
+      <c r="T685" s="18"/>
     </row>
     <row r="686" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T686" s="19"/>
+      <c r="T686" s="18"/>
     </row>
     <row r="687" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T687" s="19"/>
+      <c r="T687" s="18"/>
     </row>
     <row r="688" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T688" s="19"/>
+      <c r="T688" s="18"/>
     </row>
     <row r="689" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T689" s="19"/>
+      <c r="T689" s="18"/>
     </row>
     <row r="690" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T690" s="19"/>
+      <c r="T690" s="18"/>
     </row>
     <row r="691" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T691" s="19"/>
+      <c r="T691" s="18"/>
     </row>
     <row r="692" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T692" s="19"/>
+      <c r="T692" s="18"/>
     </row>
     <row r="693" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T693" s="19"/>
+      <c r="T693" s="18"/>
     </row>
     <row r="694" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T694" s="19"/>
+      <c r="T694" s="18"/>
     </row>
     <row r="695" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T695" s="19"/>
+      <c r="T695" s="18"/>
     </row>
     <row r="696" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T696" s="19"/>
+      <c r="T696" s="18"/>
     </row>
     <row r="697" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T697" s="19"/>
+      <c r="T697" s="18"/>
     </row>
     <row r="698" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T698" s="19"/>
+      <c r="T698" s="18"/>
     </row>
     <row r="699" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T699" s="19"/>
+      <c r="T699" s="18"/>
     </row>
     <row r="700" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T700" s="19"/>
+      <c r="T700" s="18"/>
     </row>
     <row r="701" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T701" s="19"/>
+      <c r="T701" s="18"/>
     </row>
     <row r="702" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T702" s="19"/>
+      <c r="T702" s="18"/>
     </row>
     <row r="703" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T703" s="19"/>
+      <c r="T703" s="18"/>
     </row>
     <row r="704" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T704" s="19"/>
+      <c r="T704" s="18"/>
     </row>
     <row r="705" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T705" s="19"/>
+      <c r="T705" s="18"/>
     </row>
     <row r="706" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T706" s="19"/>
+      <c r="T706" s="18"/>
     </row>
     <row r="707" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T707" s="19"/>
+      <c r="T707" s="18"/>
     </row>
     <row r="708" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T708" s="19"/>
+      <c r="T708" s="18"/>
     </row>
     <row r="709" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T709" s="19"/>
+      <c r="T709" s="18"/>
     </row>
     <row r="710" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T710" s="19"/>
+      <c r="T710" s="18"/>
     </row>
     <row r="711" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T711" s="19"/>
+      <c r="T711" s="18"/>
     </row>
     <row r="712" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T712" s="19"/>
+      <c r="T712" s="18"/>
     </row>
     <row r="713" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T713" s="19"/>
+      <c r="T713" s="18"/>
     </row>
     <row r="714" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T714" s="19"/>
+      <c r="T714" s="18"/>
     </row>
     <row r="715" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T715" s="19"/>
+      <c r="T715" s="18"/>
     </row>
     <row r="716" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T716" s="19"/>
+      <c r="T716" s="18"/>
     </row>
     <row r="717" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T717" s="19"/>
+      <c r="T717" s="18"/>
     </row>
     <row r="718" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T718" s="19"/>
+      <c r="T718" s="18"/>
     </row>
     <row r="719" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T719" s="19"/>
+      <c r="T719" s="18"/>
     </row>
     <row r="720" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T720" s="19"/>
+      <c r="T720" s="18"/>
     </row>
     <row r="721" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T721" s="19"/>
+      <c r="T721" s="18"/>
     </row>
     <row r="722" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T722" s="19"/>
+      <c r="T722" s="18"/>
     </row>
     <row r="723" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T723" s="19"/>
+      <c r="T723" s="18"/>
     </row>
     <row r="724" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T724" s="19"/>
+      <c r="T724" s="18"/>
     </row>
     <row r="725" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T725" s="19"/>
+      <c r="T725" s="18"/>
     </row>
     <row r="726" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T726" s="19"/>
+      <c r="T726" s="18"/>
     </row>
     <row r="727" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T727" s="19"/>
+      <c r="T727" s="18"/>
     </row>
     <row r="728" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T728" s="19"/>
+      <c r="T728" s="18"/>
     </row>
     <row r="729" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T729" s="19"/>
+      <c r="T729" s="18"/>
     </row>
     <row r="730" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T730" s="19"/>
+      <c r="T730" s="18"/>
     </row>
     <row r="731" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T731" s="19"/>
+      <c r="T731" s="18"/>
     </row>
     <row r="732" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T732" s="19"/>
+      <c r="T732" s="18"/>
     </row>
     <row r="733" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T733" s="19"/>
+      <c r="T733" s="18"/>
     </row>
     <row r="734" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T734" s="19"/>
+      <c r="T734" s="18"/>
     </row>
     <row r="735" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T735" s="19"/>
+      <c r="T735" s="18"/>
     </row>
     <row r="736" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T736" s="19"/>
+      <c r="T736" s="18"/>
     </row>
     <row r="737" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T737" s="19"/>
+      <c r="T737" s="18"/>
     </row>
     <row r="738" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T738" s="19"/>
+      <c r="T738" s="18"/>
     </row>
     <row r="739" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T739" s="19"/>
+      <c r="T739" s="18"/>
     </row>
     <row r="740" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T740" s="19"/>
+      <c r="T740" s="18"/>
     </row>
     <row r="741" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T741" s="19"/>
+      <c r="T741" s="18"/>
     </row>
     <row r="742" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T742" s="19"/>
+      <c r="T742" s="18"/>
     </row>
     <row r="743" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T743" s="19"/>
+      <c r="T743" s="18"/>
     </row>
     <row r="744" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T744" s="19"/>
+      <c r="T744" s="18"/>
     </row>
     <row r="745" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T745" s="19"/>
+      <c r="T745" s="18"/>
     </row>
     <row r="746" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T746" s="19"/>
+      <c r="T746" s="18"/>
     </row>
     <row r="747" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T747" s="19"/>
+      <c r="T747" s="18"/>
     </row>
     <row r="748" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T748" s="19"/>
+      <c r="T748" s="18"/>
     </row>
     <row r="749" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T749" s="19"/>
+      <c r="T749" s="18"/>
     </row>
     <row r="750" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T750" s="19"/>
+      <c r="T750" s="18"/>
     </row>
     <row r="751" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T751" s="19"/>
+      <c r="T751" s="18"/>
     </row>
     <row r="752" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T752" s="19"/>
+      <c r="T752" s="18"/>
     </row>
     <row r="753" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T753" s="19"/>
+      <c r="T753" s="18"/>
     </row>
     <row r="754" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T754" s="19"/>
+      <c r="T754" s="18"/>
     </row>
     <row r="755" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T755" s="19"/>
+      <c r="T755" s="18"/>
     </row>
     <row r="756" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T756" s="19"/>
+      <c r="T756" s="18"/>
     </row>
     <row r="757" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T757" s="19"/>
+      <c r="T757" s="18"/>
     </row>
     <row r="758" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T758" s="19"/>
+      <c r="T758" s="18"/>
     </row>
     <row r="759" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T759" s="19"/>
+      <c r="T759" s="18"/>
     </row>
     <row r="760" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T760" s="19"/>
+      <c r="T760" s="18"/>
     </row>
     <row r="761" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T761" s="19"/>
+      <c r="T761" s="18"/>
     </row>
     <row r="762" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T762" s="19"/>
+      <c r="T762" s="18"/>
     </row>
     <row r="763" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T763" s="19"/>
+      <c r="T763" s="18"/>
     </row>
     <row r="764" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T764" s="19"/>
+      <c r="T764" s="18"/>
     </row>
     <row r="765" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T765" s="19"/>
+      <c r="T765" s="18"/>
     </row>
     <row r="766" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T766" s="19"/>
+      <c r="T766" s="18"/>
     </row>
     <row r="767" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T767" s="19"/>
+      <c r="T767" s="18"/>
     </row>
     <row r="768" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T768" s="19"/>
+      <c r="T768" s="18"/>
     </row>
     <row r="769" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T769" s="19"/>
+      <c r="T769" s="18"/>
     </row>
     <row r="770" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T770" s="19"/>
+      <c r="T770" s="18"/>
     </row>
     <row r="771" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T771" s="19"/>
+      <c r="T771" s="18"/>
     </row>
     <row r="772" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T772" s="19"/>
+      <c r="T772" s="18"/>
     </row>
     <row r="773" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T773" s="19"/>
+      <c r="T773" s="18"/>
     </row>
     <row r="774" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T774" s="19"/>
+      <c r="T774" s="18"/>
     </row>
     <row r="775" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T775" s="19"/>
+      <c r="T775" s="18"/>
     </row>
     <row r="776" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T776" s="19"/>
+      <c r="T776" s="18"/>
     </row>
     <row r="777" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T777" s="19"/>
+      <c r="T777" s="18"/>
     </row>
     <row r="778" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T778" s="19"/>
+      <c r="T778" s="18"/>
     </row>
     <row r="779" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T779" s="19"/>
+      <c r="T779" s="18"/>
     </row>
     <row r="780" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T780" s="19"/>
+      <c r="T780" s="18"/>
     </row>
     <row r="781" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T781" s="19"/>
+      <c r="T781" s="18"/>
     </row>
     <row r="782" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T782" s="19"/>
+      <c r="T782" s="18"/>
     </row>
     <row r="783" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T783" s="19"/>
+      <c r="T783" s="18"/>
     </row>
     <row r="784" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T784" s="19"/>
+      <c r="T784" s="18"/>
     </row>
     <row r="785" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T785" s="19"/>
+      <c r="T785" s="18"/>
     </row>
     <row r="786" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T786" s="19"/>
+      <c r="T786" s="18"/>
     </row>
     <row r="787" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T787" s="19"/>
+      <c r="T787" s="18"/>
     </row>
     <row r="788" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T788" s="19"/>
+      <c r="T788" s="18"/>
     </row>
     <row r="789" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T789" s="19"/>
+      <c r="T789" s="18"/>
     </row>
     <row r="790" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T790" s="19"/>
+      <c r="T790" s="18"/>
     </row>
     <row r="791" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T791" s="19"/>
+      <c r="T791" s="18"/>
     </row>
     <row r="792" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T792" s="19"/>
+      <c r="T792" s="18"/>
     </row>
     <row r="793" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T793" s="19"/>
+      <c r="T793" s="18"/>
     </row>
     <row r="794" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T794" s="19"/>
+      <c r="T794" s="18"/>
     </row>
     <row r="795" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T795" s="19"/>
+      <c r="T795" s="18"/>
     </row>
     <row r="796" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T796" s="19"/>
+      <c r="T796" s="18"/>
     </row>
     <row r="797" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T797" s="19"/>
+      <c r="T797" s="18"/>
     </row>
     <row r="798" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T798" s="19"/>
+      <c r="T798" s="18"/>
     </row>
     <row r="799" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T799" s="19"/>
+      <c r="T799" s="18"/>
     </row>
     <row r="800" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T800" s="19"/>
+      <c r="T800" s="18"/>
     </row>
     <row r="801" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T801" s="19"/>
+      <c r="T801" s="18"/>
     </row>
     <row r="802" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T802" s="19"/>
+      <c r="T802" s="18"/>
     </row>
     <row r="803" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T803" s="19"/>
+      <c r="T803" s="18"/>
     </row>
     <row r="804" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T804" s="19"/>
+      <c r="T804" s="18"/>
     </row>
     <row r="805" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T805" s="19"/>
+      <c r="T805" s="18"/>
     </row>
     <row r="806" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T806" s="19"/>
+      <c r="T806" s="18"/>
     </row>
     <row r="807" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T807" s="19"/>
+      <c r="T807" s="18"/>
     </row>
     <row r="808" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T808" s="19"/>
+      <c r="T808" s="18"/>
     </row>
     <row r="809" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T809" s="19"/>
+      <c r="T809" s="18"/>
     </row>
     <row r="810" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T810" s="19"/>
+      <c r="T810" s="18"/>
     </row>
     <row r="811" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T811" s="19"/>
+      <c r="T811" s="18"/>
     </row>
     <row r="812" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T812" s="19"/>
+      <c r="T812" s="18"/>
     </row>
     <row r="813" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T813" s="19"/>
+      <c r="T813" s="18"/>
     </row>
     <row r="814" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T814" s="19"/>
+      <c r="T814" s="18"/>
     </row>
     <row r="815" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T815" s="19"/>
+      <c r="T815" s="18"/>
     </row>
     <row r="816" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T816" s="19"/>
+      <c r="T816" s="18"/>
     </row>
     <row r="817" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T817" s="19"/>
+      <c r="T817" s="18"/>
     </row>
     <row r="818" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T818" s="19"/>
+      <c r="T818" s="18"/>
     </row>
     <row r="819" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T819" s="19"/>
+      <c r="T819" s="18"/>
     </row>
     <row r="820" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T820" s="19"/>
+      <c r="T820" s="18"/>
     </row>
     <row r="821" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T821" s="19"/>
+      <c r="T821" s="18"/>
     </row>
     <row r="822" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T822" s="19"/>
+      <c r="T822" s="18"/>
     </row>
     <row r="823" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T823" s="19"/>
+      <c r="T823" s="18"/>
     </row>
     <row r="824" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T824" s="19"/>
+      <c r="T824" s="18"/>
     </row>
     <row r="825" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T825" s="19"/>
+      <c r="T825" s="18"/>
     </row>
     <row r="826" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T826" s="19"/>
+      <c r="T826" s="18"/>
     </row>
     <row r="827" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T827" s="19"/>
+      <c r="T827" s="18"/>
     </row>
     <row r="828" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T828" s="19"/>
+      <c r="T828" s="18"/>
     </row>
     <row r="829" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T829" s="19"/>
+      <c r="T829" s="18"/>
     </row>
     <row r="830" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T830" s="19"/>
+      <c r="T830" s="18"/>
     </row>
     <row r="831" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T831" s="19"/>
+      <c r="T831" s="18"/>
     </row>
     <row r="832" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T832" s="19"/>
+      <c r="T832" s="18"/>
     </row>
     <row r="833" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T833" s="19"/>
+      <c r="T833" s="18"/>
     </row>
     <row r="834" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T834" s="19"/>
+      <c r="T834" s="18"/>
     </row>
     <row r="835" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T835" s="19"/>
+      <c r="T835" s="18"/>
     </row>
     <row r="836" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T836" s="19"/>
+      <c r="T836" s="18"/>
     </row>
     <row r="837" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T837" s="19"/>
+      <c r="T837" s="18"/>
     </row>
     <row r="838" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T838" s="19"/>
+      <c r="T838" s="18"/>
     </row>
     <row r="839" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T839" s="19"/>
+      <c r="T839" s="18"/>
     </row>
     <row r="840" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T840" s="19"/>
+      <c r="T840" s="18"/>
     </row>
     <row r="841" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T841" s="19"/>
+      <c r="T841" s="18"/>
     </row>
     <row r="842" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T842" s="19"/>
+      <c r="T842" s="18"/>
     </row>
     <row r="843" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T843" s="19"/>
+      <c r="T843" s="18"/>
     </row>
     <row r="844" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T844" s="19"/>
+      <c r="T844" s="18"/>
     </row>
     <row r="845" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T845" s="19"/>
+      <c r="T845" s="18"/>
     </row>
     <row r="846" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T846" s="19"/>
+      <c r="T846" s="18"/>
     </row>
     <row r="847" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T847" s="19"/>
+      <c r="T847" s="18"/>
     </row>
     <row r="848" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T848" s="19"/>
+      <c r="T848" s="18"/>
     </row>
     <row r="849" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T849" s="19"/>
+      <c r="T849" s="18"/>
     </row>
     <row r="850" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T850" s="19"/>
+      <c r="T850" s="18"/>
     </row>
     <row r="851" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T851" s="19"/>
+      <c r="T851" s="18"/>
     </row>
     <row r="852" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T852" s="19"/>
+      <c r="T852" s="18"/>
     </row>
     <row r="853" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T853" s="19"/>
+      <c r="T853" s="18"/>
     </row>
     <row r="854" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T854" s="19"/>
+      <c r="T854" s="18"/>
     </row>
     <row r="855" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T855" s="19"/>
+      <c r="T855" s="18"/>
     </row>
     <row r="856" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T856" s="19"/>
+      <c r="T856" s="18"/>
     </row>
     <row r="857" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T857" s="19"/>
+      <c r="T857" s="18"/>
     </row>
     <row r="858" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T858" s="19"/>
+      <c r="T858" s="18"/>
     </row>
     <row r="859" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T859" s="19"/>
+      <c r="T859" s="18"/>
     </row>
     <row r="860" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T860" s="19"/>
+      <c r="T860" s="18"/>
     </row>
     <row r="861" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T861" s="19"/>
+      <c r="T861" s="18"/>
     </row>
     <row r="862" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T862" s="19"/>
+      <c r="T862" s="18"/>
     </row>
     <row r="863" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T863" s="19"/>
+      <c r="T863" s="18"/>
     </row>
     <row r="864" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T864" s="19"/>
+      <c r="T864" s="18"/>
     </row>
     <row r="865" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T865" s="19"/>
+      <c r="T865" s="18"/>
     </row>
     <row r="866" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T866" s="19"/>
+      <c r="T866" s="18"/>
     </row>
     <row r="867" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T867" s="19"/>
+      <c r="T867" s="18"/>
     </row>
     <row r="868" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T868" s="19"/>
+      <c r="T868" s="18"/>
     </row>
     <row r="869" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T869" s="19"/>
+      <c r="T869" s="18"/>
     </row>
     <row r="870" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T870" s="19"/>
+      <c r="T870" s="18"/>
     </row>
     <row r="871" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T871" s="19"/>
+      <c r="T871" s="18"/>
     </row>
     <row r="872" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T872" s="19"/>
+      <c r="T872" s="18"/>
     </row>
     <row r="873" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T873" s="19"/>
+      <c r="T873" s="18"/>
     </row>
     <row r="874" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T874" s="19"/>
+      <c r="T874" s="18"/>
     </row>
     <row r="875" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T875" s="19"/>
+      <c r="T875" s="18"/>
     </row>
     <row r="876" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T876" s="19"/>
+      <c r="T876" s="18"/>
     </row>
     <row r="877" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T877" s="19"/>
+      <c r="T877" s="18"/>
     </row>
     <row r="878" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T878" s="19"/>
+      <c r="T878" s="18"/>
     </row>
     <row r="879" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T879" s="19"/>
+      <c r="T879" s="18"/>
     </row>
     <row r="880" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T880" s="19"/>
+      <c r="T880" s="18"/>
     </row>
     <row r="881" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T881" s="19"/>
+      <c r="T881" s="18"/>
     </row>
     <row r="882" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T882" s="19"/>
+      <c r="T882" s="18"/>
     </row>
     <row r="883" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T883" s="19"/>
+      <c r="T883" s="18"/>
     </row>
     <row r="884" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T884" s="19"/>
+      <c r="T884" s="18"/>
     </row>
     <row r="885" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T885" s="19"/>
+      <c r="T885" s="18"/>
     </row>
     <row r="886" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T886" s="19"/>
+      <c r="T886" s="18"/>
     </row>
     <row r="887" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T887" s="19"/>
+      <c r="T887" s="18"/>
     </row>
     <row r="888" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T888" s="19"/>
+      <c r="T888" s="18"/>
     </row>
     <row r="889" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T889" s="19"/>
+      <c r="T889" s="18"/>
     </row>
     <row r="890" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T890" s="19"/>
+      <c r="T890" s="18"/>
     </row>
     <row r="891" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T891" s="19"/>
+      <c r="T891" s="18"/>
     </row>
     <row r="892" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T892" s="19"/>
+      <c r="T892" s="18"/>
     </row>
     <row r="893" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T893" s="19"/>
+      <c r="T893" s="18"/>
     </row>
     <row r="894" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T894" s="19"/>
+      <c r="T894" s="18"/>
     </row>
     <row r="895" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T895" s="19"/>
+      <c r="T895" s="18"/>
     </row>
     <row r="896" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T896" s="19"/>
+      <c r="T896" s="18"/>
     </row>
     <row r="897" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T897" s="19"/>
+      <c r="T897" s="18"/>
     </row>
     <row r="898" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T898" s="19"/>
+      <c r="T898" s="18"/>
     </row>
     <row r="899" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T899" s="19"/>
+      <c r="T899" s="18"/>
     </row>
     <row r="900" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T900" s="19"/>
+      <c r="T900" s="18"/>
     </row>
     <row r="901" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T901" s="19"/>
+      <c r="T901" s="18"/>
     </row>
     <row r="902" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T902" s="19"/>
+      <c r="T902" s="18"/>
     </row>
     <row r="903" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T903" s="19"/>
+      <c r="T903" s="18"/>
     </row>
     <row r="904" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T904" s="19"/>
+      <c r="T904" s="18"/>
     </row>
     <row r="905" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T905" s="19"/>
+      <c r="T905" s="18"/>
     </row>
     <row r="906" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T906" s="19"/>
+      <c r="T906" s="18"/>
     </row>
     <row r="907" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T907" s="19"/>
+      <c r="T907" s="18"/>
     </row>
     <row r="908" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T908" s="19"/>
+      <c r="T908" s="18"/>
     </row>
     <row r="909" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T909" s="19"/>
+      <c r="T909" s="18"/>
     </row>
     <row r="910" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T910" s="19"/>
+      <c r="T910" s="18"/>
     </row>
     <row r="911" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T911" s="19"/>
+      <c r="T911" s="18"/>
     </row>
     <row r="912" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T912" s="19"/>
+      <c r="T912" s="18"/>
     </row>
     <row r="913" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T913" s="19"/>
+      <c r="T913" s="18"/>
     </row>
     <row r="914" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T914" s="19"/>
+      <c r="T914" s="18"/>
     </row>
     <row r="915" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T915" s="19"/>
+      <c r="T915" s="18"/>
     </row>
     <row r="916" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T916" s="19"/>
+      <c r="T916" s="18"/>
     </row>
     <row r="917" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T917" s="19"/>
+      <c r="T917" s="18"/>
     </row>
     <row r="918" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T918" s="19"/>
+      <c r="T918" s="18"/>
     </row>
     <row r="919" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T919" s="19"/>
+      <c r="T919" s="18"/>
     </row>
     <row r="920" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T920" s="19"/>
+      <c r="T920" s="18"/>
     </row>
     <row r="921" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T921" s="19"/>
+      <c r="T921" s="18"/>
     </row>
     <row r="922" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T922" s="19"/>
+      <c r="T922" s="18"/>
     </row>
     <row r="923" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T923" s="19"/>
+      <c r="T923" s="18"/>
     </row>
     <row r="924" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T924" s="19"/>
+      <c r="T924" s="18"/>
     </row>
     <row r="925" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T925" s="19"/>
+      <c r="T925" s="18"/>
     </row>
     <row r="926" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T926" s="19"/>
+      <c r="T926" s="18"/>
     </row>
     <row r="927" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T927" s="19"/>
+      <c r="T927" s="18"/>
     </row>
     <row r="928" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T928" s="19"/>
+      <c r="T928" s="18"/>
     </row>
     <row r="929" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T929" s="19"/>
+      <c r="T929" s="18"/>
     </row>
     <row r="930" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T930" s="19"/>
+      <c r="T930" s="18"/>
     </row>
     <row r="931" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T931" s="19"/>
+      <c r="T931" s="18"/>
     </row>
     <row r="932" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T932" s="19"/>
+      <c r="T932" s="18"/>
     </row>
     <row r="933" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T933" s="19"/>
+      <c r="T933" s="18"/>
     </row>
     <row r="934" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T934" s="19"/>
+      <c r="T934" s="18"/>
     </row>
     <row r="935" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T935" s="19"/>
+      <c r="T935" s="18"/>
     </row>
     <row r="936" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T936" s="19"/>
+      <c r="T936" s="18"/>
     </row>
     <row r="937" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T937" s="19"/>
+      <c r="T937" s="18"/>
     </row>
     <row r="938" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T938" s="19"/>
+      <c r="T938" s="18"/>
     </row>
     <row r="939" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T939" s="19"/>
+      <c r="T939" s="18"/>
     </row>
     <row r="940" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T940" s="19"/>
+      <c r="T940" s="18"/>
     </row>
     <row r="941" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T941" s="19"/>
+      <c r="T941" s="18"/>
     </row>
     <row r="942" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T942" s="19"/>
+      <c r="T942" s="18"/>
     </row>
     <row r="943" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T943" s="19"/>
+      <c r="T943" s="18"/>
     </row>
     <row r="944" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T944" s="19"/>
+      <c r="T944" s="18"/>
     </row>
     <row r="945" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T945" s="19"/>
+      <c r="T945" s="18"/>
     </row>
     <row r="946" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T946" s="19"/>
+      <c r="T946" s="18"/>
     </row>
     <row r="947" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T947" s="19"/>
+      <c r="T947" s="18"/>
     </row>
     <row r="948" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T948" s="19"/>
+      <c r="T948" s="18"/>
     </row>
     <row r="949" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T949" s="19"/>
+      <c r="T949" s="18"/>
     </row>
     <row r="950" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T950" s="19"/>
+      <c r="T950" s="18"/>
     </row>
     <row r="951" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T951" s="19"/>
+      <c r="T951" s="18"/>
     </row>
     <row r="952" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T952" s="19"/>
+      <c r="T952" s="18"/>
     </row>
     <row r="953" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T953" s="19"/>
+      <c r="T953" s="18"/>
     </row>
     <row r="954" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T954" s="19"/>
+      <c r="T954" s="18"/>
     </row>
     <row r="955" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T955" s="19"/>
+      <c r="T955" s="18"/>
     </row>
     <row r="956" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T956" s="19"/>
+      <c r="T956" s="18"/>
     </row>
     <row r="957" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T957" s="19"/>
+      <c r="T957" s="18"/>
     </row>
     <row r="958" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T958" s="19"/>
+      <c r="T958" s="18"/>
     </row>
     <row r="959" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T959" s="19"/>
+      <c r="T959" s="18"/>
     </row>
     <row r="960" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T960" s="19"/>
+      <c r="T960" s="18"/>
     </row>
     <row r="961" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T961" s="19"/>
+      <c r="T961" s="18"/>
     </row>
     <row r="962" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T962" s="19"/>
+      <c r="T962" s="18"/>
     </row>
     <row r="963" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T963" s="19"/>
+      <c r="T963" s="18"/>
     </row>
     <row r="964" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T964" s="19"/>
+      <c r="T964" s="18"/>
     </row>
     <row r="965" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T965" s="19"/>
+      <c r="T965" s="18"/>
     </row>
     <row r="966" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T966" s="19"/>
+      <c r="T966" s="18"/>
     </row>
     <row r="967" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T967" s="19"/>
+      <c r="T967" s="18"/>
     </row>
     <row r="968" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T968" s="19"/>
+      <c r="T968" s="18"/>
     </row>
     <row r="969" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T969" s="19"/>
+      <c r="T969" s="18"/>
     </row>
     <row r="970" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T970" s="19"/>
+      <c r="T970" s="18"/>
     </row>
     <row r="971" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T971" s="19"/>
+      <c r="T971" s="18"/>
     </row>
     <row r="972" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T972" s="19"/>
+      <c r="T972" s="18"/>
     </row>
     <row r="973" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T973" s="19"/>
+      <c r="T973" s="18"/>
     </row>
     <row r="974" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T974" s="19"/>
+      <c r="T974" s="18"/>
     </row>
     <row r="975" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T975" s="19"/>
+      <c r="T975" s="18"/>
     </row>
     <row r="976" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T976" s="19"/>
+      <c r="T976" s="18"/>
     </row>
     <row r="977" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T977" s="19"/>
+      <c r="T977" s="18"/>
     </row>
     <row r="978" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T978" s="19"/>
+      <c r="T978" s="18"/>
     </row>
     <row r="979" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T979" s="19"/>
+      <c r="T979" s="18"/>
     </row>
     <row r="980" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T980" s="19"/>
+      <c r="T980" s="18"/>
     </row>
     <row r="981" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T981" s="19"/>
+      <c r="T981" s="18"/>
     </row>
     <row r="982" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T982" s="19"/>
+      <c r="T982" s="18"/>
     </row>
     <row r="983" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T983" s="19"/>
+      <c r="T983" s="18"/>
     </row>
     <row r="984" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T984" s="19"/>
+      <c r="T984" s="18"/>
     </row>
     <row r="985" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T985" s="19"/>
+      <c r="T985" s="18"/>
     </row>
     <row r="986" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T986" s="19"/>
+      <c r="T986" s="18"/>
     </row>
     <row r="987" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T987" s="19"/>
+      <c r="T987" s="18"/>
     </row>
     <row r="988" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T988" s="19"/>
+      <c r="T988" s="18"/>
     </row>
     <row r="989" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T989" s="19"/>
+      <c r="T989" s="18"/>
     </row>
     <row r="990" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T990" s="19"/>
+      <c r="T990" s="18"/>
     </row>
     <row r="991" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T991" s="19"/>
+      <c r="T991" s="18"/>
     </row>
     <row r="992" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T992" s="19"/>
+      <c r="T992" s="18"/>
     </row>
     <row r="993" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T993" s="19"/>
+      <c r="T993" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6692,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>

--- a/aspnet-core/src/onetouch.Web.Host/Assets/Products.xlsx
+++ b/aspnet-core/src/onetouch.Web.Host/Assets/Products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Record Type</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>Dimension3Position</t>
+  </si>
+  <si>
+    <t>Price A</t>
+  </si>
+  <si>
+    <t>Price D</t>
+  </si>
+  <si>
+    <t>Price C</t>
+  </si>
+  <si>
+    <t>Price B</t>
   </si>
 </sst>
 </file>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM993"/>
+  <dimension ref="A1:AQ993"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -689,7 +701,7 @@
     <col min="27" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="16" customFormat="1" ht="39" thickBot="1">
+    <row r="1" spans="1:43" s="16" customFormat="1" ht="39" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
@@ -807,50 +819,62 @@
       <c r="AM1" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:43">
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:43">
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:43">
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:43">
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:43">
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:43">
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:43">
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:43">
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:43">
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:43">
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:43">
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:39" ht="15.75" customHeight="1">
+    <row r="14" spans="1:43" ht="15.75" customHeight="1">
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" customHeight="1">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1">
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:39" ht="15.75" customHeight="1">
+    <row r="16" spans="1:43" ht="15.75" customHeight="1">
       <c r="T16" s="18"/>
     </row>
     <row r="17" spans="20:20" ht="15.75" customHeight="1">
